--- a/User Stories/ISW Cards.xlsx
+++ b/User Stories/ISW Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita\ISW\progettoISW\User Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CFB55B-5BFA-46CF-AC6D-FB51FB2EAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E7316E-FB84-4DCD-A529-E903F7370CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>TA:</t>
   </si>
@@ -52,16 +52,46 @@
     <t>Titolo: Visualizza lista viaggi</t>
   </si>
   <si>
-    <t>L'utente dalla pagina principale clicca il bottone "I miei viaggi" e visualizza la pagina in cui è presente la lista dei messaggi a cui partecipa, se non partecipa ad alcun viaggio viene segnato nella pagina che non partecipa a nessun viaggio</t>
-  </si>
-  <si>
     <t>Priorità: 2</t>
   </si>
   <si>
     <t>Titolo: Modifica viaggio</t>
   </si>
   <si>
-    <t>Il cliente clicca sul tasto "Visualizza i dettagli" del viaggio a cui desidera modificare i dettagli dalla lista di viaggi a cui partecipa, dalla pagina  che viene aperta può cliccare il tasto "modifica itinerario" per aprire la pagina  in cui può modificare le date, il nome e la destinazione del viaggio e aggiungere  o rimuovere tappe all'itinerario specificando nome, luogo, destinazione e data di ogni tappa, se uno dei campi viene lasciato vuoto viene segnalato e l'utente può correggere l'errore</t>
+    <t>Punti-storia: 3</t>
+  </si>
+  <si>
+    <t>Titolo: Manda inviti</t>
+  </si>
+  <si>
+    <t>L'utente dalla pagina principale clicca il bottone "I miei viaggi" e visualizza la pagina in cui è presente la lista dei viaggi a cui partecipa, se non partecipa ad alcun viaggio viene segnato nella pagina che non partecipa a nessun viaggio</t>
+  </si>
+  <si>
+    <t>Titolo: Creazione nuovo viaggio</t>
+  </si>
+  <si>
+    <t>Priorità: 1</t>
+  </si>
+  <si>
+    <t>Titolo: Logout</t>
+  </si>
+  <si>
+    <t>L'utente clicca sul tasto "Visualizza i dettagli" del viaggio a cui desidera modificare i dettagli dalla lista di viaggi a cui partecipa, dalla pagina  che viene aperta può cliccare il tasto "modifica itinerario" per aprire la pagina  in cui può modificare le date, il nome e la destinazione del viaggio e aggiungere  o rimuovere tappe all'itinerario specificando nome, luogo, destinazione e data di ogni tappa, se uno dei campi viene lasciato vuoto viene segnalato e l'utente può correggere l'errore</t>
+  </si>
+  <si>
+    <t>L'utente clicca sul tasto "Visualizza i dettagli" del viaggio a cui desidera modificare i dettagli dalla lista di viaggi a cui partecipa, dalla pagina  che viene aperta può cliccare il tasto "Manda inviti" per inserire l'username dell'utente a cui vuole mandare una richiesta di unirsi al viaggio, se l'username inserito non esiste viene segnalato e l'utente può correggere</t>
+  </si>
+  <si>
+    <t>Dalla pagina principale l'utente inserisce il nome, la destinazione e le date del viaggio, se sono tutte valori accettabili quando clicca il tasto "Crea viaggio" esso vivene creato e aggiunto alla lista di viaggi a cui partecipa, altrimenti viene segnalato un errore e può corregere i dati inseriti</t>
+  </si>
+  <si>
+    <t>L'utente clicca su un bottone che permette di lasciare la visualizzazione del sistema riservata ai clienti. Al suo posto visualizza la pagina per effettuare il login in modo tale da dover riaccedere ad un account per utilizzare il sito</t>
+  </si>
+  <si>
+    <t>Titolo: Utilizza chat</t>
+  </si>
+  <si>
+    <t>L'utente clicca sul tasto "Visualizza i dettagli" del viaggio a cui desidera modificare i dettagli dalla lista di viaggi a cui partecipa, dalla pagina che viene aperta può visualizzare i messaggi mandati dagli altri utenti che partecipano al viaggio e utilizzando la casella posizionata in fondo può mandare messaggi che saranno visibili a tutti gli utenti con accesso alla chat</t>
   </si>
 </sst>
 </file>
@@ -118,10 +148,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,383 +445,787 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="40">
+    <mergeCell ref="G37:L38"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="G41:L48"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="A41:F48"/>
+    <mergeCell ref="G25:L26"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="G29:L36"/>
+    <mergeCell ref="A25:F26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="A29:F36"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
     <mergeCell ref="A17:F24"/>
     <mergeCell ref="A5:F12"/>
     <mergeCell ref="G5:L12"/>
@@ -804,14 +1238,6 @@
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/User Stories/ISW Cards.xlsx
+++ b/User Stories/ISW Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita\ISW\progettoISW\User Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5615EA89-B9D1-40A2-8C61-DAB2EF5C74E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB7FB1C-67F9-4A68-B208-5EB8E2BB528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>TA:</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>L'utente dalla è lista dei viaggi clicca sul tasto "Visualizza i dettagli" del viaggio di cui vuole vedere i dettagli dalla lista dei viaggi a cui partecipa, dalla pagina che viene aperta può visualizzare le date del viaggio, i partecipanti e le tappe dell'itinerario</t>
+  </si>
+  <si>
+    <t>Titolo: Aggiugnere spesa la viaggio</t>
+  </si>
+  <si>
+    <t>L'utente clicca sul tasto "Visualizza i dettagli" del viaggio a cui desidera aggiungere una spesa dalla lista dei viaggi a cui partecipa, dalla pagina  che viene aperta può cliccare il tasto "gestisci spese" per aprire la pagina  in cui può aggiugnere o rimuovere le spese del viaggio e ottenerne sia il costo totale che il costo per persona, se si prova ad aggiungere una spesa con valori non validi si riceve un messaggio di avvertimento e si possono riinserire i dati</t>
   </si>
 </sst>
 </file>
@@ -441,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,7 +646,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -648,7 +654,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -680,7 +686,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
@@ -692,7 +698,7 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -712,7 +718,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -720,7 +726,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1202,7 +1208,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
@@ -1211,16 +1217,30 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,16 +1253,34 @@
         <v>1</v>
       </c>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -1251,82 +1289,140 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A49:F50"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="A53:F60"/>
-    <mergeCell ref="A17:F24"/>
-    <mergeCell ref="A5:F12"/>
-    <mergeCell ref="G5:L12"/>
-    <mergeCell ref="G17:L24"/>
-    <mergeCell ref="G13:L14"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
+  <mergeCells count="50">
+    <mergeCell ref="G49:L50"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="I51:J52"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="G53:L60"/>
+    <mergeCell ref="G37:L38"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="G41:L48"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="A41:F48"/>
+    <mergeCell ref="G25:L26"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="G29:L36"/>
+    <mergeCell ref="A25:F26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="A29:F36"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="I3:J4"/>
@@ -1335,26 +1431,23 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A25:F26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="A29:F36"/>
-    <mergeCell ref="G25:L26"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="G29:L36"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A41:F48"/>
-    <mergeCell ref="G37:L38"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="G41:L48"/>
+    <mergeCell ref="G17:L24"/>
+    <mergeCell ref="A5:F12"/>
+    <mergeCell ref="G5:L12"/>
+    <mergeCell ref="A17:F24"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="G13:L14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="A49:F50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="A53:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/User Stories/ISW Cards.xlsx
+++ b/User Stories/ISW Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita\ISW\progettoISW\User Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB7FB1C-67F9-4A68-B208-5EB8E2BB528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFAEBB-2622-4944-B567-6B5881714937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>TA:</t>
-  </si>
-  <si>
-    <t>Punti-storia:</t>
   </si>
   <si>
     <t>Titolo: Registrazione</t>
@@ -104,6 +101,12 @@
   </si>
   <si>
     <t>L'utente clicca sul tasto "Visualizza i dettagli" del viaggio a cui desidera aggiungere una spesa dalla lista dei viaggi a cui partecipa, dalla pagina  che viene aperta può cliccare il tasto "gestisci spese" per aprire la pagina  in cui può aggiugnere o rimuovere le spese del viaggio e ottenerne sia il costo totale che il costo per persona, se si prova ad aggiungere una spesa con valori non validi si riceve un messaggio di avvertimento e si possono riinserire i dati</t>
+  </si>
+  <si>
+    <t>Punti-storia: 2</t>
+  </si>
+  <si>
+    <t>Punti-storia: 1</t>
   </si>
 </sst>
 </file>
@@ -447,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -466,7 +469,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -494,11 +497,11 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
@@ -506,11 +509,11 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -530,7 +533,7 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -538,7 +541,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -646,7 +649,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -654,7 +657,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -682,11 +685,11 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
@@ -694,11 +697,11 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -718,7 +721,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -726,7 +729,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -834,7 +837,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -842,7 +845,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -870,11 +873,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
@@ -882,11 +885,11 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -906,7 +909,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -914,7 +917,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1030,7 +1033,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1058,11 +1061,11 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
@@ -1070,11 +1073,11 @@
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L39" s="2"/>
     </row>
@@ -1094,7 +1097,7 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1102,7 +1105,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1218,7 +1221,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -1246,11 +1249,11 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
@@ -1258,11 +1261,11 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L51" s="2"/>
     </row>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="53" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1290,7 +1293,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -1450,5 +1453,6 @@
     <mergeCell ref="A53:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/User Stories/ISW Cards.xlsx
+++ b/User Stories/ISW Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita\ISW\progettoISW\User Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFAEBB-2622-4944-B567-6B5881714937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1FDC5D-39F3-41CA-B484-2D347A667835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
-  <si>
-    <t>TA:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Titolo: Registrazione</t>
   </si>
@@ -97,9 +94,6 @@
     <t>L'utente dalla è lista dei viaggi clicca sul tasto "Visualizza i dettagli" del viaggio di cui vuole vedere i dettagli dalla lista dei viaggi a cui partecipa, dalla pagina che viene aperta può visualizzare le date del viaggio, i partecipanti e le tappe dell'itinerario</t>
   </si>
   <si>
-    <t>Titolo: Aggiugnere spesa la viaggio</t>
-  </si>
-  <si>
     <t>L'utente clicca sul tasto "Visualizza i dettagli" del viaggio a cui desidera aggiungere una spesa dalla lista dei viaggi a cui partecipa, dalla pagina  che viene aperta può cliccare il tasto "gestisci spese" per aprire la pagina  in cui può aggiugnere o rimuovere le spese del viaggio e ottenerne sia il costo totale che il costo per persona, se si prova ad aggiungere una spesa con valori non validi si riceve un messaggio di avvertimento e si possono riinserire i dati</t>
   </si>
   <si>
@@ -107,6 +101,39 @@
   </si>
   <si>
     <t>Punti-storia: 1</t>
+  </si>
+  <si>
+    <t>TA: register</t>
+  </si>
+  <si>
+    <t>TA: login</t>
+  </si>
+  <si>
+    <t>TA: mytravel</t>
+  </si>
+  <si>
+    <t>TA: form_modify_travel</t>
+  </si>
+  <si>
+    <t>TA: send_invite</t>
+  </si>
+  <si>
+    <t>TA: create_travel</t>
+  </si>
+  <si>
+    <t>TA: logout</t>
+  </si>
+  <si>
+    <t>TA: write_comment</t>
+  </si>
+  <si>
+    <t>TA: details_travel</t>
+  </si>
+  <si>
+    <t>TA: form_expense</t>
+  </si>
+  <si>
+    <t>Titolo: Aggiungere spesa la viaggio</t>
   </si>
 </sst>
 </file>
@@ -451,7 +478,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="G15" sqref="G15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -469,7 +496,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -493,27 +520,27 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -533,7 +560,7 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -541,7 +568,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -649,7 +676,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -657,7 +684,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -681,27 +708,27 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -712,8 +739,8 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -721,7 +748,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -729,7 +756,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -837,7 +864,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -845,7 +872,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -869,27 +896,27 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -909,7 +936,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -917,7 +944,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1025,7 +1052,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1033,7 +1060,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1057,27 +1084,27 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L39" s="2"/>
     </row>
@@ -1097,7 +1124,7 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1105,7 +1132,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1213,7 +1240,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1221,7 +1248,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -1245,27 +1272,27 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L51" s="2"/>
     </row>
@@ -1285,7 +1312,7 @@
     </row>
     <row r="53" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1293,7 +1320,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -1401,39 +1428,11 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="G49:L50"/>
-    <mergeCell ref="G51:H52"/>
-    <mergeCell ref="I51:J52"/>
-    <mergeCell ref="K51:L52"/>
-    <mergeCell ref="G53:L60"/>
-    <mergeCell ref="G37:L38"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="G41:L48"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A41:F48"/>
-    <mergeCell ref="G25:L26"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="G29:L36"/>
-    <mergeCell ref="A25:F26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="A29:F36"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A49:F50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="A53:F60"/>
     <mergeCell ref="G17:L24"/>
     <mergeCell ref="A5:F12"/>
     <mergeCell ref="G5:L12"/>
@@ -1446,11 +1445,39 @@
     <mergeCell ref="G15:H16"/>
     <mergeCell ref="I15:J16"/>
     <mergeCell ref="K15:L16"/>
-    <mergeCell ref="A49:F50"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="A53:F60"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A25:F26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="A29:F36"/>
+    <mergeCell ref="G25:L26"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="G29:L36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="A41:F48"/>
+    <mergeCell ref="G37:L38"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="G41:L48"/>
+    <mergeCell ref="G49:L50"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="I51:J52"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="G53:L60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
